--- a/Scripts/各定義_設計書類/テーブル設計書.xlsx
+++ b/Scripts/各定義_設計書類/テーブル設計書.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MetokiMasato\Desktop\SkillSheetWorkForder\Scripts\各定義_設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958C2A34-F347-4E49-8E45-7C5A0099E115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236F53A-76C5-4F99-BEEA-13BD950910FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー情報" sheetId="1" r:id="rId1"/>
     <sheet name="各テーブルの管理情報" sheetId="2" r:id="rId2"/>
     <sheet name="スキル情報" sheetId="3" r:id="rId3"/>
     <sheet name="プロジェクト情報" sheetId="4" r:id="rId4"/>
+    <sheet name="ER図" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="106">
   <si>
     <t>スキルシート管理システム</t>
   </si>
@@ -328,6 +329,59 @@
   </si>
   <si>
     <t>使用OS・プラットフォーム（例：Windows, Linux, AWS）。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>• skills: 技術スキル情報を管理するテーブル（5カラム）</t>
+  </si>
+  <si>
+    <t>• projects: プロジェクト経験情報を管理するテーブル（14カラム）</t>
+  </si>
+  <si>
+    <t>• user_info: ユーザー基本情報を管理する中心テーブル（13カラム）</t>
+  </si>
+  <si>
+    <t>【テーブル概要】</t>
+  </si>
+  <si>
+    <t>• NOT NULL制約により必須項目の入力制御</t>
+  </si>
+  <si>
+    <t>【データ整合性】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 1人のユーザーが複数のスキルを保有する可能性がある（1:N関係）</t>
+  </si>
+  <si>
+    <t>• skills.user_info_id → user_info.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 1人のユーザーが複数のプロジェクトを持つ可能性がある（1:N関係）</t>
+  </si>
+  <si>
+    <t>• projects.user_info_id → user_info.id</t>
+  </si>
+  <si>
+    <t>【外部キー制約】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 └─── (N) skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 │</t>
+  </si>
+  <si>
+    <t>user_info (1) ───┬─── (N) projects</t>
+  </si>
+  <si>
+    <t>ER図（テキスト表現）</t>
+  </si>
+  <si>
+    <t>・PRIMARY KEY制約：各テーブルの主キーで一意性を保証</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>• 外部キー制約により参照整合性を維持</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -335,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +430,22 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F4E79"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF1F4E79"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -419,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -434,6 +504,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -738,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -1620,4 +1695,108 @@
   <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B1EA9B-4AFF-4F86-A534-A827131777C3}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>